--- a/ILRG_Hluvukani_E_parties/ILRG_Hluvukani_E_parties-media/ILRG_Hluvukani_E_parties.xlsx
+++ b/ILRG_Hluvukani_E_parties/ILRG_Hluvukani_E_parties-media/ILRG_Hluvukani_E_parties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_E_parties\ILRG_Hluvukani_E_parties-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1F7DCE-983D-4C48-910C-1E752647D44F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF240BE-95D7-470F-A93F-07322B268AFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="283">
   <si>
     <t>type</t>
   </si>
@@ -855,14 +855,67 @@
   <si>
     <t>Eg5</t>
   </si>
+  <si>
+    <t>dist_id</t>
+  </si>
+  <si>
+    <t>prov_id</t>
+  </si>
+  <si>
+    <t>"P10"</t>
+  </si>
+  <si>
+    <t>"D1004"</t>
+  </si>
+  <si>
+    <t>Eg6</t>
+  </si>
+  <si>
+    <t>neighbourhood</t>
+  </si>
+  <si>
+    <t>city_block</t>
+  </si>
+  <si>
+    <t>Detalhes de residencia</t>
+  </si>
+  <si>
+    <t>Nome do Bairro:</t>
+  </si>
+  <si>
+    <t>regex(., "^[0-9]{1,5}$")</t>
+  </si>
+  <si>
+    <t>house_number</t>
+  </si>
+  <si>
+    <t>Numero de Quarteirão:</t>
+  </si>
+  <si>
+    <t>Numero de Casa:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1094,379 +1147,391 @@
   </borders>
   <cellStyleXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="238">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2043,13 +2108,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK79"/>
+  <dimension ref="A1:AMK86"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,302 +3371,281 @@
       </c>
       <c r="B16" s="26"/>
     </row>
-    <row r="17" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="N17" s="62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="N18" s="62" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C19" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L19" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+    <row r="20" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B20" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C20" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="J18" s="55" t="s">
+      <c r="J20" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="55" t="s">
+      <c r="L20" s="55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+    <row r="21" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B21" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C21" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D21" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="J19" s="55" t="s">
+      <c r="J21" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="55" t="s">
+      <c r="L21" s="55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B22" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="L20" s="19" t="s">
+      <c r="H22" s="18"/>
+      <c r="L22" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+    <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B23" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C23" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G23" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B24" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L24" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>166</v>
+      <c r="B26" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="J26" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C29" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="J29" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="26"/>
-    </row>
-    <row r="29" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B30" s="26"/>
+    </row>
+    <row r="31" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B31" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L31" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+    <row r="32" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B32" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C32" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J32" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="25" t="s">
+      <c r="L32" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B33" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J33" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="L33" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+    <row r="34" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B34" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H34" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I34" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="26"/>
-    </row>
-    <row r="34" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="J35" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="B35" s="26"/>
     </row>
     <row r="36" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J36" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="25" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="25" t="s">
@@ -3609,342 +3653,441 @@
       </c>
     </row>
     <row r="37" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="J38" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B39" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="J37" s="35"/>
-      <c r="N37" s="49" t="s">
+      <c r="J39" s="35"/>
+      <c r="N39" s="49" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="25" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+    <row r="40" spans="1:14" s="25" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B40" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C40" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="G38" s="53" t="s">
+      <c r="G40" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="J38" s="35"/>
-    </row>
-    <row r="39" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B41" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L39" s="25" t="s">
+      <c r="L41" s="25" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>75</v>
+        <v>169</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="25" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="L43" s="25" t="s">
-        <v>38</v>
+        <v>170</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="H44" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="L44" s="25" t="s">
-        <v>38</v>
+        <v>171</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L45" s="25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="26"/>
+      <c r="A46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="H46" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="L46" s="25" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="47" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="26"/>
+    </row>
+    <row r="49" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="L49" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="H51" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L51" s="67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="H52" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L52" s="67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="26"/>
+    </row>
+    <row r="54" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C54" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
+    <row r="55" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B55" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C55" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="G48" s="37" t="s">
+      <c r="G55" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="H55" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="L48" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="37"/>
-      <c r="O49" s="41" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="M50" s="40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L51" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="M51" s="40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C52" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="G52" s="37"/>
-      <c r="O52" s="41" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="J53" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="M53" s="40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="M54" s="40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="I55" s="39" t="s">
-        <v>164</v>
       </c>
       <c r="L55" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="G56" s="37"/>
+      <c r="O56" s="41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M57" s="40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M58" s="40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="G59" s="37"/>
+      <c r="O59" s="41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M60" s="40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="M61" s="40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B62" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="H62" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I62" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="L62" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C63" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="H56" s="37" t="s">
+      <c r="H63" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="I56" s="39" t="s">
+      <c r="I63" s="39" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B64" s="22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="26"/>
-    </row>
-    <row r="59" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-    </row>
-    <row r="60" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-    </row>
-    <row r="61" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-    </row>
-    <row r="62" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-    </row>
-    <row r="63" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="26"/>
-    </row>
-    <row r="64" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="26"/>
     </row>
     <row r="65" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="26"/>
@@ -3990,6 +4133,27 @@
     </row>
     <row r="79" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="26"/>
+    </row>
+    <row r="80" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="26"/>
+    </row>
+    <row r="81" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="26"/>
+    </row>
+    <row r="82" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="26"/>
+    </row>
+    <row r="83" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="26"/>
+    </row>
+    <row r="84" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="26"/>
+    </row>
+    <row r="85" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="26"/>
+    </row>
+    <row r="86" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4685,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4720,7 +4884,7 @@
         <v>201</v>
       </c>
       <c r="C2" s="3">
-        <v>201905071</v>
+        <v>201905091</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>202</v>

--- a/ILRG_Hluvukani_E_parties/ILRG_Hluvukani_E_parties-media/ILRG_Hluvukani_E_parties.xlsx
+++ b/ILRG_Hluvukani_E_parties/ILRG_Hluvukani_E_parties-media/ILRG_Hluvukani_E_parties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_E_parties\ILRG_Hluvukani_E_parties-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF240BE-95D7-470F-A93F-07322B268AFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AE11BA-DF8F-4A15-9DE5-5A06BB788A63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="283">
   <si>
     <t>type</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>Qual é a idade da pessoa?</t>
-  </si>
-  <si>
-    <t>regex(., "^[a-zA-Z0-9. _-]{1,25}$")</t>
   </si>
   <si>
     <t xml:space="preserve">Solteiro (a)                           </t>
@@ -894,14 +891,38 @@
   <si>
     <t>Numero de Casa:</t>
   </si>
+  <si>
+    <t>regex(., "^[a-zA-Z0-9()/-]{1,45}$")</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1147,391 +1168,394 @@
   </borders>
   <cellStyleXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="238">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2110,11 +2134,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,7 +2201,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>11</v>
@@ -2202,13 +2226,13 @@
     </row>
     <row r="4" spans="1:1025" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>189</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>190</v>
       </c>
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
@@ -3226,24 +3250,24 @@
     </row>
     <row r="5" spans="1:1025" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1025" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>81</v>
-      </c>
       <c r="N6" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:1025" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3251,7 +3275,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C7" s="1"/>
       <c r="L7" s="25" t="s">
@@ -3263,10 +3287,10 @@
         <v>40</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O8" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:1025" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3274,10 +3298,10 @@
         <v>40</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:1025" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3294,7 +3318,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:1025" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3305,7 +3329,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>22</v>
@@ -3319,13 +3343,13 @@
         <v>23</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>97</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>98</v>
       </c>
       <c r="L13" s="25" t="s">
         <v>31</v>
@@ -3336,13 +3360,13 @@
         <v>29</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="H14" s="25" t="s">
         <v>100</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>101</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>22</v>
@@ -3353,13 +3377,13 @@
         <v>29</v>
       </c>
       <c r="B15" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>103</v>
-      </c>
       <c r="H15" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>22</v>
@@ -3373,24 +3397,24 @@
     </row>
     <row r="17" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="N17" s="62" t="s">
         <v>271</v>
-      </c>
-      <c r="N17" s="62" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N18" s="62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3401,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>22</v>
@@ -3412,13 +3436,13 @@
     </row>
     <row r="20" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="C20" s="55" t="s">
         <v>258</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>259</v>
       </c>
       <c r="J20" s="55" t="s">
         <v>22</v>
@@ -3429,16 +3453,16 @@
     </row>
     <row r="21" spans="1:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="C21" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="D21" s="61" t="s">
         <v>262</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>263</v>
       </c>
       <c r="J21" s="55" t="s">
         <v>22</v>
@@ -3449,13 +3473,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H22" s="18"/>
       <c r="L22" s="19" t="s">
@@ -3467,13 +3491,13 @@
         <v>40</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I23" s="19"/>
     </row>
@@ -3482,10 +3506,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L24" s="25" t="s">
         <v>31</v>
@@ -3496,7 +3520,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>60</v>
@@ -3510,7 +3534,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>61</v>
@@ -3524,10 +3548,10 @@
         <v>29</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3535,10 +3559,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J28" s="25" t="s">
         <v>22</v>
@@ -3549,10 +3573,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J29" s="25" t="s">
         <v>22</v>
@@ -3569,10 +3593,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L31" s="25" t="s">
         <v>31</v>
@@ -3583,10 +3607,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J32" s="25" t="s">
         <v>22</v>
@@ -3597,13 +3621,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J33" s="19" t="s">
         <v>22</v>
@@ -3617,16 +3641,16 @@
         <v>29</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3637,13 +3661,13 @@
     </row>
     <row r="36" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" s="25" t="s">
         <v>22</v>
@@ -3657,16 +3681,16 @@
         <v>17</v>
       </c>
       <c r="B37" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>131</v>
-      </c>
       <c r="H37" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J37" s="35" t="s">
         <v>22</v>
@@ -3680,13 +3704,13 @@
         <v>56</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>62</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J38" s="35" t="s">
         <v>22</v>
@@ -3697,14 +3721,14 @@
     </row>
     <row r="39" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J39" s="35"/>
       <c r="N39" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="25" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3712,13 +3736,13 @@
         <v>40</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G40" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J40" s="35"/>
     </row>
@@ -3727,7 +3751,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>57</v>
@@ -3741,10 +3765,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J42" s="25" t="s">
         <v>22</v>
@@ -3758,16 +3782,16 @@
         <v>29</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>63</v>
+        <v>169</v>
+      </c>
+      <c r="H43" s="70" t="s">
+        <v>282</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3775,16 +3799,16 @@
         <v>29</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3792,13 +3816,13 @@
         <v>17</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L45" s="25" t="s">
         <v>38</v>
@@ -3809,13 +3833,13 @@
         <v>17</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H46" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L46" s="25" t="s">
         <v>38</v>
@@ -3823,13 +3847,13 @@
     </row>
     <row r="47" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="25" t="s">
         <v>139</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3843,10 +3867,10 @@
         <v>23</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L49" s="25" t="s">
         <v>31</v>
@@ -3857,16 +3881,16 @@
         <v>29</v>
       </c>
       <c r="B50" s="65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C50" s="67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3874,19 +3898,19 @@
         <v>29</v>
       </c>
       <c r="B51" s="66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C51" s="67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H51" s="67" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L51" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3894,19 +3918,19 @@
         <v>29</v>
       </c>
       <c r="B52" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C52" s="67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H52" s="67" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L52" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3917,13 +3941,16 @@
     </row>
     <row r="54" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="J54" s="69" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3934,16 +3961,16 @@
         <v>58</v>
       </c>
       <c r="C55" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="G55" s="37" t="s">
-        <v>153</v>
-      </c>
       <c r="H55" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L55" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -3951,14 +3978,14 @@
         <v>40</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G56" s="37"/>
       <c r="O56" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3966,16 +3993,16 @@
         <v>30</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J57" s="25" t="s">
         <v>22</v>
       </c>
       <c r="M57" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -3986,7 +4013,7 @@
         <v>33</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="25" t="s">
         <v>22</v>
@@ -3995,7 +4022,7 @@
         <v>33</v>
       </c>
       <c r="M58" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -4003,14 +4030,14 @@
         <v>40</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G59" s="37"/>
       <c r="O59" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -4018,16 +4045,16 @@
         <v>30</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J60" s="25" t="s">
         <v>22</v>
       </c>
       <c r="M60" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4035,13 +4062,16 @@
         <v>30</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="J61" s="68" t="s">
+        <v>22</v>
       </c>
       <c r="M61" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -4049,19 +4079,19 @@
         <v>29</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I62" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L62" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -4069,16 +4099,16 @@
         <v>29</v>
       </c>
       <c r="B63" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="H63" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="C63" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="H63" s="37" t="s">
-        <v>163</v>
-      </c>
       <c r="I63" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -4192,7 +4222,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -4207,10 +4237,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>203</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4218,10 +4248,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>205</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4229,10 +4259,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>207</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4240,10 +4270,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>209</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4251,10 +4281,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4262,10 +4292,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>213</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4273,10 +4303,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>215</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4284,10 +4314,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="56" t="s">
         <v>217</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4295,10 +4325,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>219</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4306,10 +4336,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="56" t="s">
         <v>221</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4317,7 +4347,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="56" t="s">
         <v>47</v>
@@ -4344,7 +4374,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>27</v>
@@ -4360,7 +4390,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>36</v>
@@ -4371,7 +4401,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>42</v>
@@ -4382,7 +4412,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>43</v>
@@ -4393,7 +4423,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>44</v>
@@ -4404,10 +4434,10 @@
         <v>35</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4415,10 +4445,10 @@
         <v>35</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D23" s="24"/>
     </row>
@@ -4427,7 +4457,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>37</v>
@@ -4438,7 +4468,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>45</v>
@@ -4449,7 +4479,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>46</v>
@@ -4472,10 +4502,10 @@
         <v>35</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4488,7 +4518,7 @@
         <v>48</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>49</v>
@@ -4499,7 +4529,7 @@
         <v>48</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>50</v>
@@ -4517,10 +4547,10 @@
         <v>52</v>
       </c>
       <c r="B33" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>182</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4528,10 +4558,10 @@
         <v>52</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4539,10 +4569,10 @@
         <v>52</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4550,65 +4580,65 @@
         <v>52</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4617,24 +4647,24 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4644,37 +4674,37 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="C48" s="56" t="s">
         <v>224</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>225</v>
       </c>
       <c r="D48" s="56"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B49" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="56" t="s">
         <v>226</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>227</v>
       </c>
       <c r="D49" s="56"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B50" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" s="56" t="s">
         <v>228</v>
-      </c>
-      <c r="C50" s="56" t="s">
-        <v>229</v>
       </c>
       <c r="D50" s="56"/>
     </row>
@@ -4686,156 +4716,156 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="C52" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="C52" s="56" t="s">
-        <v>232</v>
-      </c>
       <c r="D52" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B53" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="C53" s="56" t="s">
-        <v>234</v>
-      </c>
       <c r="D53" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B54" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="C54" s="56" t="s">
-        <v>236</v>
-      </c>
       <c r="D54" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B55" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="C55" s="56" t="s">
-        <v>238</v>
-      </c>
       <c r="D55" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B56" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="C56" s="56" t="s">
-        <v>240</v>
-      </c>
       <c r="D56" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B57" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="C57" s="56" t="s">
-        <v>242</v>
-      </c>
       <c r="D57" s="56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B58" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="C58" s="56" t="s">
-        <v>244</v>
-      </c>
       <c r="D58" s="56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B59" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="C59" s="56" t="s">
-        <v>246</v>
-      </c>
       <c r="D59" s="56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B60" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="C60" s="56" t="s">
-        <v>248</v>
-      </c>
       <c r="D60" s="56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B61" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="C61" s="56" t="s">
-        <v>250</v>
-      </c>
       <c r="D61" s="56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B62" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="C62" s="56" t="s">
-        <v>252</v>
-      </c>
       <c r="D62" s="56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4849,8 +4879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4870,7 +4900,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>25</v>
@@ -4878,16 +4908,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="C2" s="3">
+        <v>201906121</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>201</v>
-      </c>
-      <c r="C2" s="3">
-        <v>201905091</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
